--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Palomino\Documents\GitHub\max_network_influence\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F991E4AC-BB42-4810-866D-C6B528603ADB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65561F41-6C98-4BA8-A56A-CBBAC77EB509}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{D6C06556-98BB-4F4B-84B8-2A15D00DA7CC}"/>
+    <workbookView xWindow="30990" yWindow="990" windowWidth="16815" windowHeight="13290" xr2:uid="{D6C06556-98BB-4F4B-84B8-2A15D00DA7CC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="500_trials" sheetId="2" r:id="rId1"/>
+    <sheet name="Old" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
   <si>
     <t>Seeding</t>
   </si>
@@ -45,9 +46,6 @@
     <t>Seeds</t>
   </si>
   <si>
-    <t>[57, 64, 37, 81, 7, 20, 85, 76, 23, 45]</t>
-  </si>
-  <si>
     <t>Spread</t>
   </si>
   <si>
@@ -60,15 +58,9 @@
     <t>sample_graph_short</t>
   </si>
   <si>
-    <t>[0,6]</t>
-  </si>
-  <si>
     <t>[40, 36, 84, 76, 59, 58, 53, 33, 30, 79]</t>
   </si>
   <si>
-    <t>Slashdot0902_edges</t>
-  </si>
-  <si>
     <t>Degree Centrality</t>
   </si>
   <si>
@@ -79,6 +71,75 @@
   </si>
   <si>
     <t>Degree Discount</t>
+  </si>
+  <si>
+    <t>Runtime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[4, 2] </t>
+  </si>
+  <si>
+    <t>[16, 62, 83, 30, 59, 34, 80, 33, 61, 66]</t>
+  </si>
+  <si>
+    <t>[36, 40, 66, 30, 53, 58, 59, 76, 84, 44]</t>
+  </si>
+  <si>
+    <t>36, 40, 66, 30, 53, 58, 59, 76, 84, 44]</t>
+  </si>
+  <si>
+    <t>Generalized Degree Discount</t>
+  </si>
+  <si>
+    <t>[71, 36, 38, 65, 69, 78, 52, 18, 60, 50]</t>
+  </si>
+  <si>
+    <t>Random1</t>
+  </si>
+  <si>
+    <t>[40, 36, 84, 76, 59, 58, 53, 33, 30, 79, 77, 74, 60, 48, 44, 86, 83, 81, 80, 73]</t>
+  </si>
+  <si>
+    <t>[36, 40, 66, 30, 33, 53, 59, 60, 74, 76, 84, 32, 37, 48, 49, 58, 64, 67, 77, 79]</t>
+  </si>
+  <si>
+    <t>[36, 40, 66, 30, 53, 58, 59, 76, 84, 44, 48, 60, 74, 77, 79, 37, 54, 61, 64, 67]</t>
+  </si>
+  <si>
+    <t>[27, 57, 54, 53, 37, 47, 78, 71, 67, 8, 38, 61, 86, 20, 45, 66, 18, 44, 65, 79]</t>
+  </si>
+  <si>
+    <t>[5, 1]</t>
+  </si>
+  <si>
+    <t>[1, 0, 5, 4]</t>
+  </si>
+  <si>
+    <t>[26, 60, 30, 35, 20, 53, 76, 85, 58, 51]</t>
+  </si>
+  <si>
+    <t>[64, 54, 36, 43, 61, 49, 52, 82, 41, 77, 48, 75, 76, 80, 25, 32, 79, 81, 69, 59]</t>
+  </si>
+  <si>
+    <t>Closeness Centrality</t>
+  </si>
+  <si>
+    <t>[2, 33, 30, 26, 36, 24, 28, 35, 12, 23, 20, 27, 16, 7, 1, 8, 9, 43, 6, 17]</t>
+  </si>
+  <si>
+    <t>[3, 2, 33, 30, 26, 36, 24, 28, 35, 12]</t>
+  </si>
+  <si>
+    <t>[84, 72, 36, 34, 49, 76, 59, 82, 86, 52]</t>
+  </si>
+  <si>
+    <t>[22, 51, 67, 82, 26, 80, 52, 16, 23, 75, 45, 42, 39, 61, 34, 48, 78, 66, 59, 72]</t>
+  </si>
+  <si>
+    <t>Random per Trial</t>
+  </si>
+  <si>
+    <t>Random Once</t>
   </si>
 </sst>
 </file>
@@ -88,7 +149,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +168,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -133,7 +202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -141,6 +210,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,28 +526,497 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE806BEC-68C3-4559-A729-772F6DEB6B22}">
-  <dimension ref="B2:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DADED63-1807-47FA-8E36-1742704E7B73}">
+  <dimension ref="B2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G7"/>
+      <selection activeCell="F20" sqref="F20:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="3.90625" customWidth="1"/>
+    <col min="2" max="2" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>0.75</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1.13274109025951E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2.30324076255783E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <v>27</v>
+      </c>
+      <c r="H6">
+        <v>0.31395348837209303</v>
+      </c>
+      <c r="I6" s="5">
+        <v>4.3799336708616398E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>0.34883720930232498</v>
+      </c>
+      <c r="I7" s="5">
+        <v>8.1179805420106196E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8">
+        <v>21</v>
+      </c>
+      <c r="H8">
+        <v>0.24418604651162701</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2.9451279260683801E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <v>0.34883720930232498</v>
+      </c>
+      <c r="I9" s="5">
+        <v>4.8707883252063698E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>31</v>
+      </c>
+      <c r="H10">
+        <v>0.36046511627906902</v>
+      </c>
+      <c r="I10" s="5">
+        <v>4.9840622523333803E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11">
+        <v>36</v>
+      </c>
+      <c r="H11">
+        <v>0.41860465116279</v>
+      </c>
+      <c r="I11" s="5">
+        <v>7.3628194513730705E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>86</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="6">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>6.9767441860465101E-2</v>
+      </c>
+      <c r="I12" s="5">
+        <v>2.1522086171898899E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>86</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1.1627906976744099E-2</v>
+      </c>
+      <c r="I13" s="5">
+        <v>4.2289015254937099E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>86</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14">
+        <v>27</v>
+      </c>
+      <c r="H14">
+        <v>0.31395348837209303</v>
+      </c>
+      <c r="I14" s="5">
+        <v>4.5309658162295798E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>86</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15">
+        <v>29</v>
+      </c>
+      <c r="H15">
+        <v>0.337209302325581</v>
+      </c>
+      <c r="I15">
+        <v>5.3238847613101798E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>86</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16">
+        <v>29</v>
+      </c>
+      <c r="H16">
+        <v>0.337209302325581</v>
+      </c>
+      <c r="I16" s="5">
+        <v>4.0401111618848497E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>86</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <v>41</v>
+      </c>
+      <c r="H17">
+        <v>0.47674418604651098</v>
+      </c>
+      <c r="I17" s="5">
+        <v>5.9657715610228398E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>86</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18">
+        <v>29</v>
+      </c>
+      <c r="H18">
+        <v>0.337209302325581</v>
+      </c>
+      <c r="I18" s="5">
+        <v>3.96459508920088E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>86</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19">
+        <v>39</v>
+      </c>
+      <c r="H19">
+        <v>0.45348837209302301</v>
+      </c>
+      <c r="I19" s="5">
+        <v>5.9280133427819203E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE806BEC-68C3-4559-A729-772F6DEB6B22}">
+  <dimension ref="B2:I14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="1.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.08984375" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
     <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -488,15 +1028,18 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>10</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -508,17 +1051,20 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
         <f>G3/C3</f>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+        <v>0.125</v>
+      </c>
+      <c r="I3">
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -532,85 +1078,287 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H4" s="2">
         <f>G4/C4</f>
+        <v>0.15116279069767441</v>
+      </c>
+      <c r="I4">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>86</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>22</v>
+      </c>
+      <c r="H5" s="3">
+        <f>G5/C5</f>
+        <v>0.2558139534883721</v>
+      </c>
+      <c r="I5">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>86</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>19</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" ref="H6:H7" si="0">G6/C6</f>
         <v>0.22093023255813954</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="D5" s="4" t="s">
+      <c r="I6">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>86</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>19</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.22093023255813954</v>
+      </c>
+      <c r="I7">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>86</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>17</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" ref="H7:H14" si="1">G8/C8</f>
+        <v>0.19767441860465115</v>
+      </c>
+      <c r="I8">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>86</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9">
+        <v>17</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.19767441860465115</v>
+      </c>
+      <c r="I9">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>86</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10">
+        <v>25</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.29069767441860467</v>
+      </c>
+      <c r="I10">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>86</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="3">
-        <f>G5/C12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="3" t="e">
-        <f>G6/C6</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="3" t="e">
-        <f t="shared" ref="H7:H11" si="0">G7/C7</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="H8" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="H9" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="H10" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="H11" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>27</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.31395348837209303</v>
+      </c>
+      <c r="I11">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>82168</v>
+        <v>86</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>27</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.31395348837209303</v>
+      </c>
+      <c r="I12">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>86</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <v>27</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.31395348837209303</v>
+      </c>
+      <c r="I13">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>86</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14">
+        <v>21</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.2441860465116279</v>
+      </c>
+      <c r="I14">
+        <v>1E-4</v>
       </c>
     </row>
   </sheetData>
